--- a/datas/excels/Ata_Arguc.xlsx
+++ b/datas/excels/Ata_Arguc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harun\Desktop\cs449\proj\CS449-Project\datas\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3428FA-DB33-4EB6-9021-F084809D57B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E11521-E5AA-41AC-B8E3-9E62189448B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,7 +181,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>CS</t>
+    <t>NOT</t>
   </si>
 </sst>
 </file>
@@ -561,12 +561,12 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +574,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -582,7 +582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -590,7 +590,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -598,7 +598,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -632,7 +632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -649,7 +649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -666,7 +666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -683,7 +683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -700,7 +700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -717,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -734,7 +734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -751,7 +751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -768,7 +768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -785,7 +785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -802,7 +802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -819,7 +819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -836,7 +836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -870,7 +870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -887,7 +887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -904,7 +904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -921,7 +921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -938,7 +938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -955,7 +955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -972,7 +972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -989,7 +989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>50</v>
       </c>
